--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T09:32:48+00:00</t>
+    <t>2024-06-19T12:05:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:05:11+00:00</t>
+    <t>2024-06-25T16:45:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="364">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T16:45:11+00:00</t>
+    <t>2024-06-27T06:41:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,6 +69,12 @@
     <t>Example Publisher (http://example.org/example-publisher)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -235,9 +241,6 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -1275,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1373,21 +1376,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1427,6 +1430,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1488,6746 +1499,6746 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T06:41:39+00:00</t>
+    <t>2024-07-08T06:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T06:24:07+00:00</t>
+    <t>2024-07-11T13:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T13:07:17+00:00</t>
+    <t>2024-07-15T09:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T09:40:45+00:00</t>
+    <t>2024-07-16T10:33:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-16T10:33:51+00:00</t>
+    <t>2024-07-19T05:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="376">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T05:43:00+00:00</t>
+    <t>2024-07-31T11:45:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -427,33 +427,71 @@
     <t>CoverageEligibilityRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.extension:VDASID</t>
+  </si>
+  <si>
+    <t>VDASID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-vdasid}
+</t>
+  </si>
+  <si>
+    <t>VDAS-ID - VersichertenDatenAbfrageService</t>
+  </si>
+  <si>
+    <t>Es handelt sich um eine ID, welche bei der VDAS-Abfrage durch die Krankenanstalt vom e-card System vergeben wird und von der Krankenanstalt in der Aufnahme-/Ereignisanzeige mitgeliefert werden kann. Dadurch kann das Abfrageergebnis eindeutig nachvollzogen werden.
+Das Ergebnis der VDAS-Abfrage ist im ambulanten Bereich für den Krankenversicherungsträger verbindlich. Eine Ablehnung aus versicherungsrechtlichen Gründen ist nicht möglich, sofern die Er- eignisanzeige jenem Träger aus der VDAS-Abfrage (inkl. VDAS-ID) übermittelt wurde.
+Um eine zwischenstaatliche Verrechnung zu ermöglichen ist bei zwischenstaatlichen Fällen eine Ablehnung zulässig.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.extension:ExtensionDays</t>
+  </si>
+  <si>
+    <t>ExtensionDays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-extensionDays}
+</t>
+  </si>
+  <si>
+    <t>Verlaengerungstage</t>
+  </si>
+  <si>
+    <t>"Verlaengerungstage:"Anzahl der Verlaengerungstage bei Verlaengerung.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -461,6 +499,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -629,6 +670,9 @@
     <t>CoverageEligibilityRequest.event.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -740,7 +784,7 @@
     <t>CoverageEligibilityRequest.provider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/5.0.0/StructureDefinition/at-core-organization)
 </t>
   </si>
   <si>
@@ -763,10 +807,6 @@
   </si>
   <si>
     <t>CoverageEligibilityRequest.insurer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Coverage issuer</t>
@@ -1447,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN59"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1458,7 +1498,7 @@
   <cols>
     <col min="1" max="1" width="56.875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="56.875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1466,7 +1506,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.5390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2422,7 +2462,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2441,17 +2481,15 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>19</v>
@@ -2488,16 +2526,14 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2524,7 +2560,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -2532,43 +2568,41 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>19</v>
       </c>
@@ -2616,7 +2650,7 @@
         <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2640,7 +2674,7 @@
         <v>19</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -2648,9 +2682,11 @@
         <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>19</v>
       </c>
@@ -2659,7 +2695,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>19</v>
@@ -2671,18 +2707,16 @@
         <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>19</v>
       </c>
@@ -2730,7 +2764,7 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2742,13 +2776,13 @@
         <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>19</v>
@@ -2759,21 +2793,21 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>19</v>
@@ -2785,19 +2819,19 @@
         <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>19</v>
@@ -2822,13 +2856,13 @@
         <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>19</v>
@@ -2846,39 +2880,39 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2889,7 +2923,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>19</v>
@@ -2901,17 +2935,17 @@
         <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>19</v>
@@ -2936,13 +2970,13 @@
         <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>19</v>
@@ -2960,13 +2994,13 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>19</v>
@@ -2975,10 +3009,10 @@
         <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>19</v>
@@ -2989,10 +3023,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3003,13 +3037,13 @@
         <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>87</v>
@@ -3018,14 +3052,16 @@
         <v>106</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>19</v>
@@ -3053,10 +3089,10 @@
         <v>110</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3074,13 +3110,13 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>19</v>
@@ -3089,10 +3125,10 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>19</v>
@@ -3103,10 +3139,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3114,7 +3150,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3126,22 +3162,20 @@
         <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -3166,13 +3200,13 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>19</v>
@@ -3190,10 +3224,10 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3205,10 +3239,10 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>19</v>
@@ -3219,10 +3253,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3230,7 +3264,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -3242,19 +3276,21 @@
         <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>19</v>
       </c>
@@ -3278,13 +3314,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3302,10 +3338,10 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
@@ -3320,7 +3356,7 @@
         <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>19</v>
@@ -3342,7 +3378,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3354,7 +3390,7 @@
         <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>190</v>
@@ -3365,8 +3401,12 @@
       <c r="M17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>19</v>
       </c>
@@ -3414,43 +3454,43 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3469,17 +3509,15 @@
         <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>19</v>
@@ -3528,7 +3566,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3540,7 +3578,7 @@
         <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>19</v>
@@ -3552,51 +3590,47 @@
         <v>19</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
       </c>
@@ -3644,19 +3678,19 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
@@ -3668,26 +3702,26 @@
         <v>19</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>131</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
@@ -3699,15 +3733,17 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -3732,93 +3768,99 @@
         <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>19</v>
       </c>
@@ -3866,19 +3908,19 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>19</v>
@@ -3890,15 +3932,15 @@
         <v>19</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3906,7 +3948,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>86</v>
@@ -3921,18 +3963,16 @@
         <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>19</v>
       </c>
@@ -3956,13 +3996,11 @@
         <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>19</v>
@@ -3980,10 +4018,10 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>86</v>
@@ -3998,7 +4036,7 @@
         <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>19</v>
@@ -4009,10 +4047,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4032,21 +4070,19 @@
         <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>19</v>
       </c>
@@ -4094,7 +4130,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4109,10 +4145,10 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>19</v>
@@ -4248,7 +4284,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
@@ -4260,7 +4296,7 @@
         <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>232</v>
@@ -4271,11 +4307,9 @@
       <c r="M25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4327,7 +4361,7 @@
         <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>86</v>
@@ -4339,10 +4373,10 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>19</v>
@@ -4353,10 +4387,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4364,7 +4398,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>86</v>
@@ -4376,20 +4410,20 @@
         <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -4438,10 +4472,10 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>86</v>
@@ -4453,10 +4487,10 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>19</v>
@@ -4467,10 +4501,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4493,17 +4527,19 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -4552,7 +4588,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4567,7 +4603,7 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>251</v>
@@ -4592,10 +4628,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>19</v>
@@ -4604,10 +4640,10 @@
         <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>253</v>
@@ -4615,11 +4651,9 @@
       <c r="M28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -4671,10 +4705,10 @@
         <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>19</v>
@@ -4683,10 +4717,10 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>19</v>
@@ -4697,10 +4731,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4723,16 +4757,18 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
       </c>
@@ -4780,7 +4816,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4789,34 +4825,34 @@
         <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4835,18 +4871,20 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
       </c>
@@ -4894,7 +4932,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4906,7 +4944,7 @@
         <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
@@ -4918,51 +4956,47 @@
         <v>19</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
       </c>
@@ -5010,19 +5044,19 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
@@ -5034,26 +5068,26 @@
         <v>19</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>131</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -5065,18 +5099,18 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>261</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
       </c>
@@ -5124,19 +5158,19 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>19</v>
@@ -5148,50 +5182,50 @@
         <v>19</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -5240,19 +5274,19 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>19</v>
@@ -5264,15 +5298,15 @@
         <v>19</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5280,7 +5314,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5295,17 +5329,17 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5354,10 +5388,10 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>86</v>
@@ -5383,10 +5417,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5394,10 +5428,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -5409,19 +5443,19 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5470,13 +5504,13 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>19</v>
@@ -5499,10 +5533,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5525,16 +5559,18 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>19</v>
       </c>
@@ -5582,7 +5618,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5591,10 +5627,10 @@
         <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>19</v>
@@ -5606,19 +5642,19 @@
         <v>19</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5637,18 +5673,20 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>135</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
       </c>
@@ -5696,7 +5734,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5708,7 +5746,7 @@
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>19</v>
@@ -5720,51 +5758,47 @@
         <v>19</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>19</v>
       </c>
@@ -5812,19 +5846,19 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
@@ -5836,26 +5870,26 @@
         <v>19</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>131</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -5867,20 +5901,18 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>272</v>
+        <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
       </c>
@@ -5928,19 +5960,19 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
@@ -5952,48 +5984,50 @@
         <v>19</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>293</v>
+        <v>155</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6042,19 +6076,19 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>216</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
@@ -6066,15 +6100,15 @@
         <v>19</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6097,17 +6131,19 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -6156,7 +6192,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6185,10 +6221,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6196,10 +6232,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>19</v>
@@ -6211,17 +6247,17 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6270,13 +6306,13 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>19</v>
@@ -6299,10 +6335,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6325,16 +6361,18 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
       </c>
@@ -6382,7 +6420,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>193</v>
+        <v>306</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6391,10 +6429,10 @@
         <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
@@ -6406,19 +6444,19 @@
         <v>19</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6437,18 +6475,18 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>19</v>
       </c>
@@ -6496,7 +6534,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6508,7 +6546,7 @@
         <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
@@ -6520,51 +6558,47 @@
         <v>19</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>19</v>
       </c>
@@ -6612,19 +6646,19 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
@@ -6636,19 +6670,19 @@
         <v>19</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>131</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6667,18 +6701,18 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>261</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
       </c>
@@ -6726,7 +6760,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6738,7 +6772,7 @@
         <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
@@ -6750,50 +6784,50 @@
         <v>19</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>310</v>
+        <v>214</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>311</v>
+        <v>215</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>312</v>
+        <v>154</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>313</v>
+        <v>155</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -6818,13 +6852,13 @@
         <v>19</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>314</v>
+        <v>19</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>19</v>
@@ -6842,19 +6876,19 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
@@ -6866,15 +6900,15 @@
         <v>19</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6885,7 +6919,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>19</v>
@@ -6897,17 +6931,15 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N48" t="s" s="2">
         <v>319</v>
       </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>320</v>
       </c>
@@ -6934,13 +6966,13 @@
         <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>322</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>19</v>
@@ -6958,13 +6990,13 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>19</v>
@@ -6987,10 +7019,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7001,7 +7033,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -7013,19 +7045,19 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -7050,13 +7082,13 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -7074,13 +7106,13 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>19</v>
@@ -7103,10 +7135,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7129,17 +7161,19 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7164,13 +7198,13 @@
         <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>19</v>
@@ -7188,7 +7222,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7203,10 +7237,10 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>19</v>
@@ -7217,10 +7251,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7231,7 +7265,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
@@ -7243,7 +7277,7 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>335</v>
+        <v>174</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>336</v>
@@ -7251,9 +7285,11 @@
       <c r="M51" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7278,13 +7314,13 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -7302,13 +7338,13 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>19</v>
@@ -7331,10 +7367,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7357,17 +7393,17 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>340</v>
+        <v>239</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -7416,7 +7452,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7431,10 +7467,10 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>19</v>
@@ -7445,10 +7481,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7471,17 +7507,17 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>248</v>
+        <v>348</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -7530,7 +7566,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7559,10 +7595,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7573,7 +7609,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>19</v>
@@ -7585,17 +7621,17 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>352</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -7644,13 +7680,13 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>19</v>
@@ -7665,7 +7701,7 @@
         <v>19</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>19</v>
@@ -7673,10 +7709,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7699,16 +7735,18 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>190</v>
+        <v>356</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>192</v>
+        <v>357</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
       </c>
@@ -7756,7 +7794,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>193</v>
+        <v>355</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7765,10 +7803,10 @@
         <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>19</v>
@@ -7780,19 +7818,19 @@
         <v>19</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7811,18 +7849,18 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
       </c>
@@ -7870,7 +7908,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>198</v>
+        <v>358</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7882,7 +7920,7 @@
         <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>19</v>
@@ -7891,54 +7929,50 @@
         <v>19</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>19</v>
+        <v>361</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>19</v>
       </c>
@@ -7986,19 +8020,19 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
@@ -8010,26 +8044,26 @@
         <v>19</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>131</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -8041,18 +8075,18 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>355</v>
+        <v>209</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>19</v>
       </c>
@@ -8076,13 +8110,13 @@
         <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>358</v>
+        <v>19</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>359</v>
+        <v>19</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>19</v>
@@ -8100,19 +8134,19 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>353</v>
+        <v>211</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
@@ -8124,19 +8158,19 @@
         <v>19</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8149,23 +8183,25 @@
         <v>19</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>361</v>
+        <v>214</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>363</v>
+        <v>155</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -8214,7 +8250,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8226,18 +8262,246 @@
         <v>19</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK59" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AK60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="377">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T11:45:17+00:00</t>
+    <t>2024-08-01T08:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -807,6 +807,10 @@
   </si>
   <si>
     <t>CoverageEligibilityRequest.insurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Coverage issuer</t>
@@ -4643,17 +4647,17 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -4717,10 +4721,10 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>19</v>
@@ -4731,10 +4735,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4757,17 +4761,17 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -4816,7 +4820,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4834,7 +4838,7 @@
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
@@ -4845,10 +4849,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4874,16 +4878,16 @@
         <v>198</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -4932,7 +4936,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4961,10 +4965,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5073,10 +5077,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5187,10 +5191,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5303,10 +5307,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5329,17 +5333,17 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5388,7 +5392,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
@@ -5417,10 +5421,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5443,19 +5447,19 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5504,7 +5508,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -5533,10 +5537,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5559,17 +5563,17 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -5618,7 +5622,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5647,10 +5651,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5676,16 +5680,16 @@
         <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -5734,7 +5738,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5763,10 +5767,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5875,10 +5879,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5989,10 +5993,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6105,10 +6109,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6131,19 +6135,19 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -6192,7 +6196,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6221,10 +6225,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6247,17 +6251,17 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6306,7 +6310,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>86</v>
@@ -6335,10 +6339,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6364,14 +6368,14 @@
         <v>202</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6420,7 +6424,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6449,10 +6453,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6478,14 +6482,14 @@
         <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -6534,7 +6538,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6563,10 +6567,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6675,10 +6679,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6789,10 +6793,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6905,10 +6909,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6931,17 +6935,17 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -6990,7 +6994,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7019,10 +7023,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7048,16 +7052,16 @@
         <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -7085,10 +7089,10 @@
         <v>178</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -7106,7 +7110,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7135,10 +7139,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7164,16 +7168,16 @@
         <v>174</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7201,10 +7205,10 @@
         <v>178</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>19</v>
@@ -7222,7 +7226,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7251,10 +7255,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7280,16 +7284,16 @@
         <v>174</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7317,10 +7321,10 @@
         <v>178</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -7338,7 +7342,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7367,10 +7371,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7396,14 +7400,14 @@
         <v>239</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -7452,7 +7456,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7481,10 +7485,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7507,17 +7511,17 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -7566,7 +7570,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7595,10 +7599,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7621,17 +7625,17 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -7680,7 +7684,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7709,10 +7713,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7735,17 +7739,17 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -7794,7 +7798,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7823,10 +7827,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7852,14 +7856,14 @@
         <v>198</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -7908,7 +7912,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7929,7 +7933,7 @@
         <v>19</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>19</v>
@@ -7937,10 +7941,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8049,10 +8053,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8163,10 +8167,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8279,10 +8283,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8305,17 +8309,17 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8343,10 +8347,10 @@
         <v>178</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>19</v>
@@ -8364,7 +8368,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8393,10 +8397,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8419,17 +8423,17 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -8478,7 +8482,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="382">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T08:50:18+00:00</t>
+    <t>2024-08-01T13:41:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -483,6 +483,22 @@
   </si>
   <si>
     <t>"Verlaengerungstage:"Anzahl der Verlaengerungstage bei Verlaengerung.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.extension:PremiumClass</t>
+  </si>
+  <si>
+    <t>PremiumClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-PremiumClass}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"KLAS – Allgemeine Gebührenklasse/Sonderklasse" </t>
+  </si>
+  <si>
+    <t>"KLAS – Allgemeine Gebührenklasse/Sonderklasse"</t>
   </si>
   <si>
     <t>CoverageEligibilityRequest.modifierExtension</t>
@@ -1491,7 +1507,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2800,43 +2816,41 @@
         <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>19</v>
       </c>
@@ -2884,7 +2898,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2908,19 +2922,19 @@
         <v>19</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2933,23 +2947,25 @@
         <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>19</v>
@@ -2998,7 +3014,7 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3010,27 +3026,27 @@
         <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3038,34 +3054,32 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>19</v>
@@ -3090,13 +3104,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3114,13 +3128,13 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>19</v>
@@ -3129,10 +3143,10 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>19</v>
@@ -3143,10 +3157,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3154,7 +3168,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3163,23 +3177,25 @@
         <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -3204,13 +3220,13 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>19</v>
@@ -3228,10 +3244,10 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3243,10 +3259,10 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>19</v>
@@ -3257,10 +3273,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3268,10 +3284,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
@@ -3280,20 +3296,20 @@
         <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3318,13 +3334,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3342,13 +3358,13 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>19</v>
@@ -3357,10 +3373,10 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>19</v>
@@ -3371,10 +3387,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3385,7 +3401,7 @@
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>19</v>
@@ -3397,19 +3413,17 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -3434,13 +3448,13 @@
         <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>19</v>
@@ -3458,13 +3472,13 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>19</v>
@@ -3473,10 +3487,10 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>19</v>
@@ -3487,10 +3501,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3498,10 +3512,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>19</v>
@@ -3510,19 +3524,23 @@
         <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>19</v>
       </c>
@@ -3570,13 +3588,13 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>19</v>
@@ -3585,10 +3603,10 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>19</v>
@@ -3599,10 +3617,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3613,7 +3631,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -3625,13 +3643,13 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3682,19 +3700,19 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
@@ -3706,26 +3724,26 @@
         <v>19</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
@@ -3737,17 +3755,15 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -3796,19 +3812,19 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>19</v>
@@ -3820,19 +3836,19 @@
         <v>19</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3845,10 +3861,10 @@
         <v>19</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>133</v>
@@ -3860,11 +3876,9 @@
         <v>215</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>19</v>
       </c>
@@ -3936,7 +3950,7 @@
         <v>19</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
@@ -3948,35 +3962,39 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>19</v>
       </c>
@@ -4000,11 +4018,13 @@
         <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>19</v>
@@ -4022,19 +4042,19 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
@@ -4046,15 +4066,15 @@
         <v>19</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4077,7 +4097,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>223</v>
@@ -4110,13 +4130,11 @@
         <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>19</v>
@@ -4134,7 +4152,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4163,10 +4181,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4174,7 +4192,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
@@ -4189,18 +4207,16 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
       </c>
@@ -4248,10 +4264,10 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>86</v>
@@ -4266,7 +4282,7 @@
         <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>19</v>
@@ -4277,10 +4293,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4288,7 +4304,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
@@ -4300,20 +4316,20 @@
         <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4362,10 +4378,10 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>86</v>
@@ -4377,10 +4393,10 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>19</v>
@@ -4391,10 +4407,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4402,7 +4418,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>86</v>
@@ -4414,20 +4430,20 @@
         <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -4476,10 +4492,10 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>86</v>
@@ -4491,10 +4507,10 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>19</v>
@@ -4505,10 +4521,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4531,19 +4547,17 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -4592,7 +4606,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4607,10 +4621,10 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>19</v>
@@ -4621,10 +4635,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4632,7 +4646,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
@@ -4644,20 +4658,22 @@
         <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -4706,10 +4722,10 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>86</v>
@@ -4721,10 +4737,10 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>19</v>
@@ -4735,10 +4751,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4746,7 +4762,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -4758,20 +4774,20 @@
         <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -4820,10 +4836,10 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
@@ -4835,10 +4851,10 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
@@ -4849,10 +4865,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4863,7 +4879,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
@@ -4875,7 +4891,7 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>266</v>
@@ -4883,11 +4899,9 @@
       <c r="M30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -4936,13 +4950,13 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>19</v>
@@ -4954,7 +4968,7 @@
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>19</v>
@@ -4979,7 +4993,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
@@ -4991,16 +5005,20 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
       </c>
@@ -5048,19 +5066,19 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
@@ -5072,26 +5090,26 @@
         <v>19</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>207</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -5103,17 +5121,15 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5162,19 +5178,19 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI32" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>19</v>
@@ -5186,19 +5202,19 @@
         <v>19</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5211,10 +5227,10 @@
         <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>133</v>
@@ -5226,11 +5242,9 @@
         <v>215</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>19</v>
       </c>
@@ -5302,48 +5316,50 @@
         <v>19</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>277</v>
+        <v>160</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5392,19 +5408,19 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
@@ -5416,7 +5432,7 @@
         <v>19</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35">
@@ -5455,11 +5471,9 @@
       <c r="M35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5537,10 +5551,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5548,7 +5562,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -5563,15 +5577,17 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>288</v>
       </c>
@@ -5622,10 +5638,10 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>86</v>
@@ -5665,7 +5681,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>19</v>
@@ -5677,17 +5693,15 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N37" t="s" s="2">
         <v>292</v>
       </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>293</v>
       </c>
@@ -5744,7 +5758,7 @@
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>19</v>
@@ -5781,7 +5795,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
@@ -5793,16 +5807,20 @@
         <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
       </c>
@@ -5850,19 +5868,19 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
@@ -5874,26 +5892,26 @@
         <v>19</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>207</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -5905,17 +5923,15 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -5964,19 +5980,19 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI39" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
@@ -5988,19 +6004,19 @@
         <v>19</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6013,10 +6029,10 @@
         <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>133</v>
@@ -6028,11 +6044,9 @@
         <v>215</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>19</v>
       </c>
@@ -6104,50 +6118,50 @@
         <v>19</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>285</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>300</v>
+        <v>159</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -6196,19 +6210,19 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
@@ -6220,7 +6234,7 @@
         <v>19</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42">
@@ -6236,7 +6250,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>86</v>
@@ -6251,15 +6265,17 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>306</v>
       </c>
@@ -6313,7 +6329,7 @@
         <v>302</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>86</v>
@@ -6350,7 +6366,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>86</v>
@@ -6365,17 +6381,17 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6427,7 +6443,7 @@
         <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>86</v>
@@ -6453,10 +6469,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6467,7 +6483,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>19</v>
@@ -6479,17 +6495,17 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -6538,13 +6554,13 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>19</v>
@@ -6567,10 +6583,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6581,7 +6597,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -6593,16 +6609,18 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>203</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
       </c>
@@ -6650,19 +6668,19 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>205</v>
+        <v>316</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
@@ -6674,26 +6692,26 @@
         <v>19</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>207</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
@@ -6705,17 +6723,15 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -6764,19 +6780,19 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI46" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
@@ -6788,19 +6804,19 @@
         <v>19</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6813,10 +6829,10 @@
         <v>19</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>133</v>
@@ -6828,11 +6844,9 @@
         <v>215</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>19</v>
       </c>
@@ -6904,19 +6918,19 @@
         <v>19</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6929,23 +6943,25 @@
         <v>19</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>321</v>
+        <v>160</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -6994,7 +7010,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7006,7 +7022,7 @@
         <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>19</v>
@@ -7018,15 +7034,15 @@
         <v>19</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7037,7 +7053,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -7049,17 +7065,15 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N49" t="s" s="2">
         <v>325</v>
       </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>326</v>
       </c>
@@ -7086,13 +7100,13 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>327</v>
+        <v>19</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -7110,13 +7124,13 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>19</v>
@@ -7139,10 +7153,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7165,19 +7179,19 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7202,13 +7216,13 @@
         <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>19</v>
@@ -7226,7 +7240,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7255,10 +7269,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7269,7 +7283,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
@@ -7281,19 +7295,19 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7318,13 +7332,13 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -7342,13 +7356,13 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>19</v>
@@ -7371,10 +7385,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7385,7 +7399,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
@@ -7397,17 +7411,19 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -7432,13 +7448,13 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>19</v>
@@ -7456,13 +7472,13 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>19</v>
@@ -7471,10 +7487,10 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>19</v>
@@ -7485,10 +7501,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7511,7 +7527,7 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>348</v>
+        <v>244</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>349</v>
@@ -7570,7 +7586,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7585,10 +7601,10 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>19</v>
@@ -7635,7 +7651,7 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -7713,10 +7729,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7739,17 +7755,17 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>261</v>
+        <v>359</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -7798,7 +7814,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7827,10 +7843,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7841,7 +7857,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>19</v>
@@ -7853,17 +7869,17 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>198</v>
+        <v>362</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -7912,13 +7928,13 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>19</v>
@@ -7933,7 +7949,7 @@
         <v>19</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>362</v>
+        <v>19</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>19</v>
@@ -7941,10 +7957,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7955,7 +7971,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
@@ -7967,16 +7983,18 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>204</v>
+        <v>366</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
       </c>
@@ -8024,19 +8042,19 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>205</v>
+        <v>364</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
@@ -8045,29 +8063,29 @@
         <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>19</v>
+        <v>367</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>207</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -8079,17 +8097,15 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8138,19 +8154,19 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AG58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ58" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
@@ -8162,19 +8178,19 @@
         <v>19</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8187,10 +8203,10 @@
         <v>19</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>133</v>
@@ -8202,11 +8218,9 @@
         <v>215</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>19</v>
       </c>
@@ -8278,48 +8292,50 @@
         <v>19</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>368</v>
+        <v>219</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8344,13 +8360,13 @@
         <v>19</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>371</v>
+        <v>19</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>372</v>
+        <v>19</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>19</v>
@@ -8368,19 +8384,19 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>366</v>
+        <v>221</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>19</v>
@@ -8392,15 +8408,15 @@
         <v>19</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8411,7 +8427,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>19</v>
@@ -8423,17 +8439,17 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>279</v>
+        <v>372</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -8458,13 +8474,13 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>19</v>
+        <v>376</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -8482,13 +8498,13 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>19</v>
@@ -8506,6 +8522,120 @@
         <v>19</v>
       </c>
       <c r="AN61" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T13:41:58+00:00</t>
+    <t>2024-08-06T11:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T11:00:40+00:00</t>
+    <t>2024-08-06T12:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:10:21+00:00</t>
+    <t>2024-08-07T21:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T21:51:51+00:00</t>
+    <t>2024-09-03T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:35:21+00:00</t>
+    <t>2024-09-03T06:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:46:02+00:00</t>
+    <t>2024-09-05T05:58:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T05:58:31+00:00</t>
+    <t>2024-09-10T13:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T13:26:38+00:00</t>
+    <t>2024-09-11T18:39:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T18:39:22+00:00</t>
+    <t>2024-09-12T09:13:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T09:13:24+00:00</t>
+    <t>2024-09-12T16:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T16:58:21+00:00</t>
+    <t>2024-09-17T12:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="377">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T12:39:21+00:00</t>
+    <t>2024-09-17T13:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -451,24 +451,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>CoverageEligibilityRequest.extension:VDASID</t>
-  </si>
-  <si>
-    <t>VDASID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-vdasid}
-</t>
-  </si>
-  <si>
-    <t>VDAS-ID - VersichertenDatenAbfrageService</t>
-  </si>
-  <si>
-    <t>Es handelt sich um eine ID, welche bei der VDAS-Abfrage durch die Krankenanstalt vom e-card System vergeben wird und von der Krankenanstalt in der Aufnahme-/Ereignisanzeige mitgeliefert werden kann. Dadurch kann das Abfrageergebnis eindeutig nachvollzogen werden.
-Das Ergebnis der VDAS-Abfrage ist im ambulanten Bereich für den Krankenversicherungsträger verbindlich. Eine Ablehnung aus versicherungsrechtlichen Gründen ist nicht möglich, sofern die Er- eignisanzeige jenem Träger aus der VDAS-Abfrage (inkl. VDAS-ID) übermittelt wurde.
-Um eine zwischenstaatliche Verrechnung zu ermöglichen ist bei zwischenstaatlichen Fällen eine Ablehnung zulässig.</t>
-  </si>
-  <si>
     <t>CoverageEligibilityRequest.extension:ExtensionDays</t>
   </si>
   <si>
@@ -980,7 +962,7 @@
     <t>CoverageEligibilityRequest.insurance.coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage)
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/SVCCoverage)
 </t>
   </si>
   <si>
@@ -1507,7 +1489,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2816,41 +2798,43 @@
         <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>19</v>
       </c>
@@ -2898,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2922,19 +2906,19 @@
         <v>19</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2947,25 +2931,23 @@
         <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>19</v>
@@ -3014,7 +2996,7 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3026,27 +3008,27 @@
         <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3054,32 +3036,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>19</v>
@@ -3104,13 +3088,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3128,13 +3112,13 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>19</v>
@@ -3143,10 +3127,10 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>19</v>
@@ -3157,10 +3141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3168,7 +3152,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3177,25 +3161,23 @@
         <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -3220,13 +3202,13 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>19</v>
@@ -3244,10 +3226,10 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3259,10 +3241,10 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>19</v>
@@ -3273,10 +3255,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3284,10 +3266,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
@@ -3296,20 +3278,20 @@
         <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3334,37 +3316,37 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>19</v>
@@ -3373,10 +3355,10 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>19</v>
@@ -3387,10 +3369,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3401,7 +3383,7 @@
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>19</v>
@@ -3413,17 +3395,19 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O17" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -3448,13 +3432,13 @@
         <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>19</v>
@@ -3472,13 +3456,13 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>19</v>
@@ -3487,10 +3471,10 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>19</v>
@@ -3501,10 +3485,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3512,10 +3496,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>19</v>
@@ -3524,23 +3508,19 @@
         <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>19</v>
       </c>
@@ -3588,13 +3568,13 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>19</v>
@@ -3603,10 +3583,10 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>19</v>
@@ -3617,10 +3597,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3631,7 +3611,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -3643,13 +3623,13 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3700,19 +3680,19 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
@@ -3724,26 +3704,26 @@
         <v>19</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
@@ -3755,15 +3735,17 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -3812,19 +3794,19 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>19</v>
@@ -3836,19 +3818,19 @@
         <v>19</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3861,10 +3843,10 @@
         <v>19</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>133</v>
@@ -3876,9 +3858,11 @@
         <v>215</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>19</v>
       </c>
@@ -3950,7 +3934,7 @@
         <v>19</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>212</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22">
@@ -3962,39 +3946,35 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>19</v>
       </c>
@@ -4018,13 +3998,11 @@
         <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>19</v>
@@ -4042,19 +4020,19 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
@@ -4066,15 +4044,15 @@
         <v>19</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4097,7 +4075,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>223</v>
@@ -4130,11 +4108,13 @@
         <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>19</v>
@@ -4152,7 +4132,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4181,10 +4161,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4192,7 +4172,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
@@ -4207,16 +4187,18 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
       </c>
@@ -4264,10 +4246,10 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>86</v>
@@ -4282,7 +4264,7 @@
         <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>19</v>
@@ -4293,10 +4275,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4304,7 +4286,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
@@ -4316,20 +4298,20 @@
         <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4378,10 +4360,10 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>86</v>
@@ -4393,10 +4375,10 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>19</v>
@@ -4407,10 +4389,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4418,7 +4400,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>86</v>
@@ -4430,20 +4412,20 @@
         <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -4492,10 +4474,10 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>86</v>
@@ -4507,10 +4489,10 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>19</v>
@@ -4521,10 +4503,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4547,17 +4529,19 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -4606,7 +4590,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4621,10 +4605,10 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>19</v>
@@ -4635,10 +4619,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4646,7 +4630,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
@@ -4658,22 +4642,20 @@
         <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -4722,10 +4704,10 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>86</v>
@@ -4737,10 +4719,10 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>19</v>
@@ -4751,10 +4733,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4762,7 +4744,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -4774,20 +4756,20 @@
         <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -4836,10 +4818,10 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
@@ -4851,10 +4833,10 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
@@ -4865,10 +4847,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4879,7 +4861,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
@@ -4891,7 +4873,7 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>266</v>
@@ -4899,9 +4881,11 @@
       <c r="M30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -4950,13 +4934,13 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>19</v>
@@ -4968,7 +4952,7 @@
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>19</v>
@@ -4993,7 +4977,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
@@ -5005,20 +4989,16 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>271</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
       </c>
@@ -5066,19 +5046,19 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
@@ -5090,26 +5070,26 @@
         <v>19</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -5121,15 +5101,17 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5178,19 +5160,19 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>19</v>
@@ -5202,19 +5184,19 @@
         <v>19</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5227,10 +5209,10 @@
         <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>133</v>
@@ -5242,9 +5224,11 @@
         <v>215</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
       </c>
@@ -5316,50 +5300,48 @@
         <v>19</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>212</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5408,19 +5390,19 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
@@ -5432,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -5471,9 +5453,11 @@
       <c r="M35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5551,10 +5535,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5562,7 +5546,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -5577,17 +5561,15 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N36" t="s" s="2">
         <v>287</v>
       </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>288</v>
       </c>
@@ -5638,10 +5620,10 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>86</v>
@@ -5681,7 +5663,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>19</v>
@@ -5693,15 +5675,17 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>293</v>
       </c>
@@ -5758,7 +5742,7 @@
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>19</v>
@@ -5795,7 +5779,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
@@ -5807,20 +5791,16 @@
         <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>19</v>
       </c>
@@ -5868,19 +5848,19 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>294</v>
+        <v>205</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
@@ -5892,26 +5872,26 @@
         <v>19</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -5923,15 +5903,17 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -5980,19 +5962,19 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
@@ -6004,19 +5986,19 @@
         <v>19</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6029,10 +6011,10 @@
         <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>133</v>
@@ -6044,9 +6026,11 @@
         <v>215</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>19</v>
       </c>
@@ -6118,50 +6102,50 @@
         <v>19</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>212</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -6210,19 +6194,19 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
@@ -6234,7 +6218,7 @@
         <v>19</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -6250,7 +6234,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>86</v>
@@ -6265,17 +6249,15 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N42" t="s" s="2">
         <v>305</v>
       </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>306</v>
       </c>
@@ -6329,7 +6311,7 @@
         <v>302</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>86</v>
@@ -6366,7 +6348,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>86</v>
@@ -6381,17 +6363,17 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6443,7 +6425,7 @@
         <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>86</v>
@@ -6469,10 +6451,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6483,7 +6465,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>19</v>
@@ -6495,17 +6477,17 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -6554,13 +6536,13 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>19</v>
@@ -6583,10 +6565,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6597,7 +6579,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -6609,18 +6591,16 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>318</v>
+        <v>204</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>19</v>
       </c>
@@ -6668,19 +6648,19 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>316</v>
+        <v>205</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
@@ -6692,26 +6672,26 @@
         <v>19</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
@@ -6723,15 +6703,17 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -6780,19 +6762,19 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
@@ -6804,19 +6786,19 @@
         <v>19</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6829,10 +6811,10 @@
         <v>19</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>133</v>
@@ -6844,9 +6826,11 @@
         <v>215</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
       </c>
@@ -6918,19 +6902,19 @@
         <v>19</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>212</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6943,25 +6927,23 @@
         <v>19</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>160</v>
+        <v>321</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7010,7 +6992,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>221</v>
+        <v>318</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7022,7 +7004,7 @@
         <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>19</v>
@@ -7034,15 +7016,15 @@
         <v>19</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7053,7 +7035,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -7065,15 +7047,17 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>326</v>
       </c>
@@ -7100,13 +7084,13 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -7124,13 +7108,13 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>19</v>
@@ -7153,10 +7137,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7179,19 +7163,19 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7216,13 +7200,13 @@
         <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>19</v>
@@ -7240,7 +7224,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7269,10 +7253,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7283,7 +7267,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
@@ -7295,19 +7279,19 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7332,13 +7316,13 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -7356,13 +7340,13 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>19</v>
@@ -7385,10 +7369,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7399,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
@@ -7411,19 +7395,17 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -7448,13 +7430,13 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>19</v>
@@ -7472,13 +7454,13 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>19</v>
@@ -7487,10 +7469,10 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>19</v>
@@ -7501,10 +7483,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7527,7 +7509,7 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>244</v>
+        <v>348</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>349</v>
@@ -7586,7 +7568,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7601,10 +7583,10 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>19</v>
@@ -7651,7 +7633,7 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -7729,10 +7711,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7755,17 +7737,17 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -7814,7 +7796,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7843,10 +7825,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7857,7 +7839,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>19</v>
@@ -7869,17 +7851,17 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>362</v>
+        <v>198</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>266</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -7928,13 +7910,13 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>19</v>
@@ -7949,7 +7931,7 @@
         <v>19</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>19</v>
@@ -7957,10 +7939,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7971,7 +7953,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
@@ -7983,18 +7965,16 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>366</v>
+        <v>204</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>19</v>
       </c>
@@ -8042,19 +8022,19 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>364</v>
+        <v>205</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
@@ -8063,29 +8043,29 @@
         <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>367</v>
+        <v>19</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -8097,15 +8077,17 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8154,19 +8136,19 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
@@ -8178,19 +8160,19 @@
         <v>19</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8203,10 +8185,10 @@
         <v>19</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>133</v>
@@ -8218,9 +8200,11 @@
         <v>215</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
       </c>
@@ -8292,50 +8276,48 @@
         <v>19</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>212</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8360,13 +8342,13 @@
         <v>19</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>19</v>
+        <v>371</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>19</v>
@@ -8384,19 +8366,19 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>19</v>
@@ -8408,15 +8390,15 @@
         <v>19</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8427,7 +8409,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>19</v>
@@ -8439,17 +8421,17 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>372</v>
+        <v>279</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -8474,13 +8456,13 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>376</v>
+        <v>19</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>377</v>
+        <v>19</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -8498,13 +8480,13 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>19</v>
@@ -8522,120 +8504,6 @@
         <v>19</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN62" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:24:04+00:00</t>
+    <t>2024-09-17T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:52:39+00:00</t>
+    <t>2024-09-17T14:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:02:22+00:00</t>
+    <t>2024-09-17T14:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:11:23+00:00</t>
+    <t>2024-09-17T14:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:20:09+00:00</t>
+    <t>2024-09-17T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:52:20+00:00</t>
+    <t>2024-09-17T17:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T17:35:28+00:00</t>
+    <t>2024-09-17T18:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:06:53+00:00</t>
+    <t>2024-09-17T18:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:22:57+00:00</t>
+    <t>2024-09-17T20:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:06:55+00:00</t>
+    <t>2024-09-17T20:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:22:56+00:00</t>
+    <t>2024-09-18T05:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T05:27:51+00:00</t>
+    <t>2024-09-19T11:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T11:50:53+00:00</t>
+    <t>2024-09-19T12:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:04:20+00:00</t>
+    <t>2024-09-22T15:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T15:40:07+00:00</t>
+    <t>2024-09-23T07:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T07:19:12+00:00</t>
+    <t>2024-09-23T11:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:09:48+00:00</t>
+    <t>2024-09-23T11:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:29:53+00:00</t>
+    <t>2024-09-23T11:42:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:42:54+00:00</t>
+    <t>2024-09-23T12:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T12:18:50+00:00</t>
+    <t>2024-09-23T18:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T18:28:00+00:00</t>
+    <t>2024-09-23T19:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:43:17+00:00</t>
+    <t>2024-09-23T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:56:54+00:00</t>
+    <t>2024-09-24T07:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T07:39:02+00:00</t>
+    <t>2024-09-25T11:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:00:26+00:00</t>
+    <t>2024-09-25T11:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:40:05+00:00</t>
+    <t>2024-09-25T11:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:54:18+00:00</t>
+    <t>2024-09-25T12:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T12:57:21+00:00</t>
+    <t>2024-09-25T14:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:29:33+00:00</t>
+    <t>2024-09-25T14:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:44:31+00:00</t>
+    <t>2024-09-26T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:10:34+00:00</t>
+    <t>2024-09-26T07:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:17:19+00:00</t>
+    <t>2024-09-26T07:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>MOPED Profil der CoverageEligibilityRequest Ressource für die Kostenübernahmeanfrage.</t>
+    <t>MOPED Profil der CoverageEligibilityRequest Ressource für die Versichertenanspruchserklärung-Anfrage.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:48:16+00:00</t>
+    <t>2024-09-26T07:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:51:13+00:00</t>
+    <t>2024-09-26T08:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:50:40+00:00</t>
+    <t>2024-09-26T08:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:56:22+00:00</t>
+    <t>2024-09-26T09:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:55:47+00:00</t>
+    <t>2024-09-26T09:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:59:14+00:00</t>
+    <t>2024-09-26T10:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T10:56:09+00:00</t>
+    <t>2024-09-26T13:32:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:32:53+00:00</t>
+    <t>2024-09-26T13:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:57:34+00:00</t>
+    <t>2024-09-27T07:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T07:18:42+00:00</t>
+    <t>2024-09-30T06:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T06:58:27+00:00</t>
+    <t>2024-09-30T08:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:02:36+00:00</t>
+    <t>2024-09-30T08:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:10:10+00:00</t>
+    <t>2024-09-30T08:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:14:13+00:00</t>
+    <t>2024-09-30T08:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:48:22+00:00</t>
+    <t>2024-09-30T09:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T09:04:34+00:00</t>
+    <t>2024-09-30T10:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T10:20:26+00:00</t>
+    <t>2024-09-30T12:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T12:24:06+00:00</t>
+    <t>2024-09-30T18:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T18:33:40+00:00</t>
+    <t>2024-10-01T09:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T09:38:16+00:00</t>
+    <t>2024-10-01T12:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T12:31:57+00:00</t>
+    <t>2024-10-07T08:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T08:22:28+00:00</t>
+    <t>2024-10-11T08:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T08:15:28+00:00</t>
+    <t>2024-10-11T09:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T09:22:23+00:00</t>
+    <t>2024-10-23T07:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:34:13+00:00</t>
+    <t>2024-10-23T11:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T11:03:56+00:00</t>
+    <t>2024-10-24T12:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T12:38:05+00:00</t>
+    <t>2024-10-24T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:32:35+00:00</t>
+    <t>2024-10-24T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:59:53+00:00</t>
+    <t>2024-10-24T14:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T14:28:41+00:00</t>
+    <t>2024-10-24T17:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:45:49+00:00</t>
+    <t>2024-10-24T18:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:34:10+00:00</t>
+    <t>2024-10-24T19:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
